--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/71_Şırnak_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/71_Şırnak_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C3DAA30-1055-4E03-A0EC-CD9043112871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74F3A371-6780-4835-A0BE-11A9E37220AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="707" xr2:uid="{15F97A52-15E2-409F-B18F-A55A97C69173}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="707" xr2:uid="{24C9F443-FBDD-47A7-960B-26E2F9D48D7B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -947,14 +947,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{7B810772-461E-4747-9D96-82BAC60CF246}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{2399431E-779A-4275-9A64-CE6F0F4515E6}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{3A5A7475-09C3-4511-A25E-BDAB499FB2D7}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{F05CC171-8FEB-440D-9FB9-2CC167757D1D}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{17DD526B-7E34-46EB-AA73-ECD8BE558D28}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{CCFCC49C-9A2A-4985-B682-EA43A5BC2934}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{85BA2B67-80BC-4F5A-A0E9-A69EAB6992D7}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{4BDE357E-51A4-4DEC-BEB3-2693ECB6EEFF}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{563E76D8-02BF-492D-B6E8-5564F0BBD11F}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{4FAA14F9-F37A-45F6-B0E5-280AAC4756E7}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{D2B8D32C-69B8-4F69-A172-EA6293386EFC}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{DA268DE9-7E55-4C8F-97E6-E2038431759D}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{12C4251C-61C2-4CFE-9BA1-474F8B464561}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{881F38E3-23CD-4046-A3E8-D218D15BFD02}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{6040AC7F-8BD7-4FD2-BB4E-47B7C9864238}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{46687BE9-4AB4-482C-B802-03E79AB3ACB5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1324,7 +1324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EE762A-9E48-400F-BC14-86D6BD4AFA98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB5F935-B17E-4424-B1BE-34D67673A5A2}">
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2633,18 +2633,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{419BE923-D9CD-4B02-8BB5-77542F6BC6E8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A284DF4E-922E-4D77-BD44-621A8E6D9B43}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6638459F-1FDE-4E06-A053-76D06EA313EA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{777431CC-C827-4EB8-BBEF-B4E4C1E1BEEA}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{35AD51A3-873E-47C8-BFF6-7AD7AA8FCF24}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{77868F5E-F553-4A35-89FF-5D08B714E33C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{458C4CDE-1D7E-4C3A-AF12-B54868F7D23C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E485F67F-EF18-4ABE-94A6-33F4736ED574}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6589AB3F-A584-4EB9-A9E1-756ED2959734}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{532F8F85-510F-42F8-B7B7-9A5D48E573A0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7C905F78-50A0-4872-B89E-D4DD886466DE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{30BC1FA9-6541-4977-AD6B-E5172C0441A5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB007CCA-5F90-49C6-AADF-AC6C581FC4AB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BDC30B95-8D8C-4B26-B75E-DF58D61B24AB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8B0B9199-FB03-4C8E-9FBC-68E74DBFCAFA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CC47C2EB-BDA7-4CA8-A90B-299F0C7A4726}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{289C37BA-9DA7-4981-A5C5-C96354631A71}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{583F13A9-D9DB-4C99-9976-66A45A495026}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AAAF67A3-9BFD-4435-908A-12F78DF28767}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13B0D245-DEC8-4974-9912-C5BFB55A824B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FC3EDA8A-972D-4DC8-BC43-5A18C73E213E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{74B5DA2C-3842-42BF-B378-DA8675130464}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3406D423-29C6-48FF-9044-F7101B2F39F1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A5C9FE07-7DE5-4214-8563-2F8F5D9C1206}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2657,7 +2657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16086CA9-835A-4F38-B24A-6215A9599EF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6FB6B7-9713-442D-B94C-7FC0A996AE72}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3943,18 +3943,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{06250319-DB9F-4B28-B7F1-C5A28CFA5C53}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{04D77879-1D4F-4C19-A27C-0457002DDB62}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A388496B-65E5-4D7D-B274-7471D3352215}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{245E88B6-FBE6-4418-B20E-52332B9E3DDD}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{2804353B-949A-459F-BF4B-A03ACF35EA7D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9324BFEC-AD21-497D-882B-F09E9362C282}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{540ECCBA-CA74-43D0-8EBE-62A42B09EC34}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5BECE583-570C-427D-ABE6-06B8D5835296}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{81144B37-4A1E-441A-A6E9-0B50607C1DD5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{25E02769-90D8-4CBC-A3E9-2C8A4469A6FD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{849C31A8-7F7D-4A6D-AA50-45863118EFF2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7C0F1B0F-3B6E-49FD-9932-7E55F59982E3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{320721D7-A687-407D-B755-657875DC8CE8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ECE2BAF7-2879-467F-85C7-D898F668D00E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{78BD5E93-D9EE-4826-A597-1DC4188443C7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B8E4DA9F-3D6F-49F7-857A-024D3C416180}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A34DD430-54A9-41C7-AB09-465CD1E15DC8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DC194507-9B1F-44AB-9501-FCF3CD740B5A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{80F1B9D6-A592-47B6-9552-C9153AFB08DD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7FBA0BFD-77F7-4948-BC52-182DA9088E64}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{271C4791-95A8-4E68-9A2B-5FD1456A614B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B415CB88-9037-4DBE-A89C-2CFE769E5224}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D3A9D829-079B-4D11-8F2C-C9F278561B89}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3D598C47-1DFB-4B63-80F0-584611514B64}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3967,7 +3967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B80D09-FB3A-47CB-A2E6-F3036557092C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB38FCE9-6F13-4781-BAC0-27578E5A33DC}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5253,18 +5253,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B6A54BBC-21E1-4EBC-828F-1DCA492B1111}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC352F63-44D3-4146-9F0D-F3C54F3E0BB1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4B9D7A47-5BB2-49FA-BD27-6458B0ECA1E5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C5406DFB-1DB9-454F-B3AB-1706DE425E7C}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{4DCF09ED-E210-45AF-BD84-5011D72335F7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3484900B-CC77-4449-BA29-69D3849B9CE7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{86B44ED0-75A4-4ED9-A3EC-CE4C5ACCAE28}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B4B351F8-1000-4E96-A3C3-5C56ECFE5D04}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DA7E34AE-DDDE-4CC9-95EF-D85F9D5A209A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4B251A19-7B00-4094-BDBE-B311C5C7AE62}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E85B24CD-EAB6-4737-911D-B31706FD320C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{017C0287-CC38-442E-AEE7-A66888A796A8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B6F8D1CB-842D-497D-932B-76611CD59A89}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{89374C98-84F6-42BE-8CA3-5E3E6BE99183}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F2D3A0AF-2B24-4639-A882-CF9243591F09}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{16ABC98F-23D2-4FD0-A69B-1EBBC52BE339}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C06E9C2F-EB8B-4682-B681-581ADD978BC8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6C3454FF-1786-4270-BB09-08E0065CBCAB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{72A717A1-E6F2-4ACF-99F6-59CE815D1A2E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{01AAEB1F-C611-4D95-A6CC-F280A0F52274}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7DBE8BF1-0A0B-433A-B8C7-EBEB81645E29}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D7AA24D7-9557-4F97-82A3-3D8C1CD97ED4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FA608598-32C6-4CBC-8FE6-89A9422CC409}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C8D18F79-6F38-4F17-8374-5421BF2C7197}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5277,7 +5277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C58019-DAC0-44DD-B9EA-51945556CC81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAD1758-C258-43E5-A5F9-5CDB78899A92}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6551,18 +6551,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{742C206D-3518-4674-B8DD-1FF5137039EF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{567A9879-5EF9-43CE-934C-6224FEC4D25E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{04ED16B6-C0A7-4286-BFE6-DBB5A88C2B9F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{177CD9DD-6F5D-4325-B14D-96E3868FB627}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{80A4E8CD-980D-4234-999A-4058B017FA61}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{11747158-B931-489D-91BB-A158B2B7D78A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3EF0A7FD-95C2-498D-9219-93C0FC2BBF74}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{39CBCC3B-C307-4C0C-9A84-4BE71B4C401C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C942FF10-AD23-453B-AEC5-9BE9F975F207}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{324261CB-0DB5-4D57-928B-72094D53FA0F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{03AB2AE3-8B29-4675-8D1D-1E20670EC339}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{462167DC-275F-415F-8E2E-0C73B90FF0BE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D90F63EF-1DF7-45CC-B830-6CBB9A2B12DB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{84FDFFE5-00CA-4369-8114-93B3456D584F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0CF5B977-FC11-49E4-8645-4E494301CCAA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BF0C0EFB-2664-4DF1-B2CC-854F6F8580DF}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{D69C70DE-2634-493D-85F2-F8557C803E53}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{578C53FE-F868-468D-A46D-ECC35F2D020D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{00D3F540-9DC0-448B-A5AA-C387972654B0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D9A76408-872B-48D2-9645-28FD7E1A17E8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BE465E8C-50BF-4E96-AFC6-B346F2D763AA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{98DF3F46-CED9-46F3-B58A-F21400DEF465}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4C15124E-A3CA-4136-8419-B21E5F1887E9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5C30ED9E-2297-4719-A705-F71B806E3F1A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6575,7 +6575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B2A664-7A78-428A-BD3C-DC09CFF81045}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDE3BE5-C559-466B-909B-21B7BF98833F}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7881,18 +7881,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{469BEBFC-2A1C-48FE-8A59-7496CE4EC05B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F468D9DE-1D8B-4A5D-87CF-E759C5E6BE2C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F78F7324-24CE-4C36-B5D4-354E28980F3C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{03693E2B-99B1-48D3-9D43-34B4EE2BC6DD}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{68FC3DB7-7734-42AC-92EC-70E97720EE89}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{132914CC-E670-4BEC-A095-8F218D498379}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{24703A73-CC7F-4086-A6B6-B35F6F5F2F8D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A200F013-EDF2-447C-912F-406B25777975}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{053145E3-EC61-486C-B12C-CE154B71F641}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A47B801B-5F04-4B3A-BC67-F3CE6B7C94EA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB72A6E5-9B89-4FB5-A215-4DFCCBE72353}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{23F3134E-B02E-4EE4-93B4-C9A58488BF7E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2D249B11-7530-4E07-8151-AF64C58D99D2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C68114AE-BF36-456C-9F73-54F5B453CCE2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{ECDA3B08-13B6-4026-8CDA-FDE69A635444}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{984ED221-6B92-4C11-B174-297AE4BFEB70}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{CD500D61-C717-4A68-BDC0-AF4B8E33CAD9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6E384C88-1CEB-4A94-AE56-CF622A88190C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1D7F75AA-938E-454C-8606-F8F7DB34CCCF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E539E1F7-3C60-46EB-89BC-301CCE9679EB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BB66EF42-3E7B-4C16-A733-F70C43809FDA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5E93373D-FCB1-4394-A24A-F0BE91C6A4A9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6B2E5C6B-9DAA-443E-9E77-BF5BDA1A945A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FC868E80-CD57-4F65-9355-0BBDD7FFDF37}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7905,7 +7905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47F5825-5C8A-4C42-A4F7-D464C54710C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD63EA2-F5C9-4989-9368-A29A157C110D}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9211,18 +9211,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{07820A9B-4E79-463F-B51F-B3EB989F85DD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C43023B0-FFB6-468F-8EBC-11598124E4A4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1DCF9632-782E-4E4D-9429-227A533C4863}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F00A8629-0110-4F65-975C-48B1B1D58974}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{AD3B4B9F-9E8E-4CCB-8DA2-8FF1FB334C31}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC6B90E8-1537-4C74-9737-529F84D73FAC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9EFFD048-7A81-4C76-8368-93464A430B0E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C5EC65D4-7DC0-4539-B67F-2A85B2DDCB62}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8B6E9B43-37DF-4325-BBBC-8ED851A68841}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3D178E67-B336-4C01-B4A8-F7E0890C422C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E362ADC7-0E2C-49DC-8B12-8B060E263335}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C95BC4A5-F7AF-4E6B-982B-D123BAA475D9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5D023426-103F-4105-B0BD-DA325C6058FA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C4224A15-07FD-4E57-B5E8-1F2C29C8AA74}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{050D3D1A-E028-402F-8C10-837490AF9D79}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{35B7A3A8-FE38-425D-8805-FA5DB1A32B8F}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E8D8A4FF-39CD-4FC6-8D72-CC0600ABF794}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F7FE7A74-7FAC-4916-81D0-2118364E20F2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9904F10A-EE3A-4119-BBEB-2059F5560D1E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{22A4038C-8F19-4C2E-8039-CB9C00B67889}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{930A4FF0-C932-4555-86DC-73632E7B7033}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{35B9C866-21B0-48E9-ADA0-CE065CACB0CB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B50A78C2-8737-4715-B22A-2360CBC62663}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{75AA944B-665B-4ED0-A38D-9CB06ACDC556}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9235,7 +9235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74385EC-0BF2-4C0B-8EC2-E5DCDE95126A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640C1194-C8A7-45D5-853A-075BBC518EE5}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10533,18 +10533,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CD33D61B-26C8-4564-A3E7-710DFEEDA239}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3A61A4C2-5D72-427C-83CA-7668BB73673A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BBB2CD61-1208-4A0D-B3FC-109402894DC7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8C9C9A4F-738F-44D8-8E7A-C2A47A4FBBE1}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E0D9B3D7-B0F8-436C-AC9D-2AAD1D62EBF3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{76ED6948-2BEC-408D-BE6A-C0ACDF26B562}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AB5E7A5D-2DAB-4532-949C-6B0E1121A4A2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C1E4C785-E894-4B32-A9C2-03190A057470}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{95D54ADD-8D60-4B1C-AA5A-30EB5282E57B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{662370F3-A186-4D25-8079-C6240C19C979}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{779B5C35-A7E6-450E-97B5-EA8DA138B29C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F9C5C3F7-A98D-4B0C-AEA0-51FDD520F9E0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2BE05AA8-782D-473B-9493-E847F978DFAD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9C1729AA-5475-4A8B-9E5A-65120C1D07CF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C99A1B22-EF8D-4774-A7A3-2189AC839682}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F7F32D61-872A-4D74-ADB7-0678220F9A43}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E43AE079-AFE5-4C9B-8530-319859F2A812}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{84609A49-867F-4391-B391-9A9F78624F25}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A90CBCA0-BCB5-4A73-962F-8F967EB005D6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA60077C-346C-4FAF-B5FB-8C2338B19CC1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{360F36A4-4E13-4C51-A533-3B1EDCD66CC7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AE93BF6C-53F8-4822-8A29-9CEC366809A3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{319BF4D9-9C8A-4023-861D-71DB801D5F77}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7C388AEB-EF94-480F-967A-2EF629AF6108}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10557,7 +10557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B451B43E-430B-4F51-9571-788D6E8DCFA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F11ECC-8E89-4FA4-8298-500E52B13973}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11855,18 +11855,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BC6F043C-4D64-4935-95D3-7B075E86FF59}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27964D5E-69A6-4BDB-8905-A0FB6B37A654}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{64BF1093-DFD1-4B74-9003-006A5F2D6995}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BB12ACAA-DFD8-4B97-B69B-1E530799B6BF}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{5031B774-C4F2-47F2-BEA9-58E6D638E42D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BEC6BEA0-4B8B-4BFD-9951-E0F9D8ABA129}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{55178A1D-5848-495F-A392-145C3CCF843A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4A294306-69A0-471E-B6EF-B706F2CE13E7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CC9897EA-9EBC-494A-AE05-C657EFA4EDAB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D22D4146-1944-4A59-AECF-125E4A27C91B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{858E64FA-4B5B-45F3-9FE0-BA0571CB25DA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CE803727-59E8-485B-A214-25EF3257CCAB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9BD7A381-82A2-4106-AF51-AE4994C74D59}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{838F00D7-D5B2-4034-B7D3-FD1BDC36F3DC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8B4D7DF3-EE8F-4F6F-99F2-EDD5930E3221}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9823B724-BDAE-492C-8667-289D195B67FA}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{96EB8D83-5F73-45B5-8361-E085B4D8F404}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5E91937D-8505-4D58-BEF9-7BE5967F0E0E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7C871ED5-8B8B-48AB-923A-E87002D86154}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4A1BFD4B-FB75-44A4-8CB4-B3FB84117F1D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{64FF4DBB-3F2C-4D07-8511-02CE234A9F34}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C3DC7D72-3117-4B59-8829-8D05797A721D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E5C032C6-9E17-4BCE-88A1-9639A01EC164}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8A086324-F2D2-4D09-A072-E897DFB09538}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11879,7 +11879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802ECA7D-DCC9-4AEA-81B6-1E7ABF643696}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454C56E2-1C1C-4DC5-B6DE-E6BE8012507E}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13177,18 +13177,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{24332D60-B413-4A98-96F5-DB3C448412D1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F1E6B0B1-DC25-4FEC-81DC-18AFCC56D3AE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D5703BD4-1B27-4A00-813A-9BBF3124C554}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6C1285FE-0E2A-4801-9C22-FE1788D07637}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{4A8282E2-A5FB-4BFD-B623-F42645182B7C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{28911622-0399-4272-95C7-637449E9EEC3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{324A58D8-46BF-4031-BDBA-85FE3E7159B4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{423123D8-FF5A-4079-A06E-258880243D74}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{80A6AFDA-F2A5-47D8-BD74-6322E96BBBD2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{285E145E-B98D-4E63-88F9-019A84F307E7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{45D83D17-EF82-4A70-A9AA-DC6CDFD9F456}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{675F8BBA-C183-4AA4-8A04-BB20EE1391AD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0B1944CC-7AE8-4180-BC08-E839907A86D2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C4D80FC1-B407-4523-964A-23A4F5E0418E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4EF0F368-A845-488A-A4B9-1597937CD127}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A3C33DF8-819D-46FB-B8CC-B81C4849A8FD}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{3655D9DA-F90D-4930-A5FA-775B94B5A862}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CE02CF59-AFEF-4E1A-BEAD-6644667FF616}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{14939F12-FA50-4815-BB7D-94C98405EB6B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{72EBBB7F-4B24-487A-944A-5EAC7C358C93}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AC016151-928E-481A-B9B2-1D5F2BFEBA46}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{37422545-637C-44CB-B25F-E1BD1DD75ED8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F6283069-FA78-4774-B26E-B99EC8B4057D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1C02A80F-8A42-4E05-B2D2-B75613E9A98B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13201,7 +13201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC88512-60FD-40B1-AD4F-6096DD21E3A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC826A5-FCD6-48C9-ACE2-2DE015BCE6C3}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14499,18 +14499,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BA5D698C-4844-4F69-BD14-310EFBD4BA33}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{07418D86-92CE-470E-9DD8-AEAE9AA29C70}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{81185C63-CF8C-4464-B4C8-BEC8E1C6D6B8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D5DA3D03-CBB6-4813-8AB8-61D39E849686}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{FB477475-16B5-4FCE-9D95-E8CC98C99B5C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{233950DF-3FAE-4CC8-91BA-29E927CA22DB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA8A649A-96A9-440F-A567-425BB7EED3AB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{52B81207-D903-43F1-8D79-A609DB9C0A93}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DFB8C2C9-3B75-453C-ACCA-6869FF630C15}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D2AB9037-DD81-40A1-B1C1-41AA98E07A7F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8B19D99B-BD58-49EB-850A-694EED8097AB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8E077511-C84D-4006-A21B-2A5A1CA28451}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8C73841F-9DCB-4568-B917-883D1BC76F37}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6D5E2208-6F1F-4238-B5B5-B2C055CFDD3C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0903E87A-7858-4EEA-8637-82E24FB4C106}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{58AC9456-1B4E-499B-A761-3249719C21F3}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{85946C04-A1FD-4551-87F4-2AC7CDB04138}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BC704D69-8FBA-4F00-A93C-0262F62037BE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A2AD3C92-4C97-443C-82F5-D38CB6DCDFDA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BF2754A8-5855-4601-9DEF-7B5B56F0B24F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{850B50C5-0B22-49AF-8A27-D822FBCF55A3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{139C279F-AD6B-4DDC-9F68-A1D2EBEAE0A6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FDC25455-D7B4-461D-B564-F022D6FB2529}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{47192FD0-AF6C-4E67-82DA-7898A8611E55}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14523,7 +14523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43942517-60CF-423D-A351-36AF9FC83D28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526909A7-21AD-437F-8B15-415D3A0783E8}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15817,18 +15817,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{53391A41-2BD4-407F-AB84-2F516AA4F98F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F39DF93B-11E9-42EE-B8B9-D5F688B71872}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3DEF3E8E-8E8E-4B47-83C5-856EAC922F85}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DEE86D63-92FB-4450-8659-64AF1ABB8DFD}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{BFD7D133-B1E4-4DAF-913D-6F9EE1CEDBC9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BCEC64E2-352F-4F63-9F1E-BB7DD0401343}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89A4A0EA-8CC2-4602-B3F6-A824B3E19B49}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{40680E05-A36A-45DD-B573-D3462CA49A65}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B6F16764-65A7-4C71-BF75-B30D72FA1288}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C10469B7-B067-495D-AF95-B7FD054BD6C3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9BC885AF-89C5-4A33-82C1-CD704B6F74AC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{771DF731-C083-49B7-A673-0E6222AB3853}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9182F56E-7A35-4732-BBEC-8D9B16F20946}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{21E64D99-F849-4253-9C24-3451EA451F32}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{ACF4B61E-B88B-4A56-84F1-C416EAC0310F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{647895C0-4C22-4941-9D52-28FF97A420A5}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8645B405-EE6D-49B0-9940-51F37FFD4D63}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{99FECF2A-F087-4ADF-8CC4-DF804CE1AB63}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5E5A5630-ECB0-43D2-B646-30A9ACEC68B0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6A26DE83-513B-46B5-8DA1-DFAE9B6C7348}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E0BEEBD7-B07C-4B53-9241-C05D02C468C9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9B30539F-B850-4037-8EA1-56037E77BAD3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{669D0EBC-AB24-4E8B-ABA9-F21C87F54A47}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C5195782-82FA-4092-A052-DCD109B63249}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15841,7 +15841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E53B70-6083-4C59-BC40-F62BE66E57EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8C9532-B2BE-4905-811F-E6749253DCF7}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17135,18 +17135,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F9E535CB-1F35-47DE-9C89-DE3FC797B603}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{87E0378A-2189-4268-8457-88488A2F975A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9B35241A-595F-43EE-87E5-E0890B0F3BB5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8A0F3B51-4BC7-4C47-B709-EFB0CBC06BD2}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6B33F741-A99D-48CD-B1A6-593A5FB6122A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{20A38BCD-CB18-416C-9A3E-C383A21E6038}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9001A125-9B15-4506-8EBA-B32F34A17565}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DB7FDCB9-0BF6-48F6-834B-C81C40C24232}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{582ABA81-5338-48C3-B717-DFAE7EF3C5D8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8F37D265-76A2-463F-9361-64EFD8C15260}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{455F482E-1AE8-4F52-AFCB-35DEF9A17868}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{24638E19-C2BC-4C3B-B481-694E6FA4ABD8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E1B8432-C268-4183-ABAA-C619FBE4E950}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9026B0D6-1553-47D6-8907-4A7C2C7BB82A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8BAA13ED-7CA0-43EE-8A9A-FCC2201DD74D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DE689BF0-61EF-43D1-81BA-D3BC10293294}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{989B352A-E3EE-4FB6-ACA9-8341E5823B2F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BAA9CDED-B7A9-47FA-8899-0AC0BAE8D2A3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CCDBEC19-9FBD-4443-B45E-991C4691488F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A9701AFB-214D-4D4C-8805-841B537D272F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2906A82B-7EC4-432F-AC82-9D8306B9D51F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F7F8A49C-64D8-430F-9B94-6FFA1E9640C0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A7A4E6F-BED7-48EE-8545-C5730374F020}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3004A2C0-E432-4576-AFAB-3DB42418F159}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
